--- a/week-2/2-4-more-complex-calculations/more-complex-calculations-warm-up-solution.xlsx
+++ b/week-2/2-4-more-complex-calculations/more-complex-calculations-warm-up-solution.xlsx
@@ -84,10 +84,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -140,19 +138,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -440,7 +432,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -659,13 +651,13 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>899.99900000000002</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>900</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <f>B9/C9</f>
         <v>0.99999888888888888</v>
       </c>
